--- a/Statistics/Master/2019/Weekly/August/Week of August 26, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 26, 2019.xlsx
@@ -1173,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="P42" sqref="P42"/>
@@ -4599,7 +4599,6 @@
       <c r="I47" s="8" t="n"/>
       <c r="J47" s="8" t="n"/>
     </row>
-    <row r="48"/>
     <row customHeight="1" ht="18.75" r="49" s="25">
       <c r="A49" s="1" t="inlineStr">
         <is>

--- a/Statistics/Master/2019/Weekly/August/Week of August 26, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 26, 2019.xlsx
@@ -1593,24 +1593,44 @@
           <t>Student</t>
         </is>
       </c>
-      <c r="B12" s="20" t="n"/>
-      <c r="C12" s="20" t="n"/>
-      <c r="D12" s="20" t="n"/>
-      <c r="E12" s="20" t="n"/>
-      <c r="F12" s="20" t="n"/>
-      <c r="G12" s="20" t="n"/>
-      <c r="H12" s="20" t="n"/>
+      <c r="B12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="H12" s="20" t="n">
+        <v>1</v>
+      </c>
       <c r="I12" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="20" t="n"/>
-      <c r="K12" s="20" t="n"/>
-      <c r="L12" s="20" t="n"/>
-      <c r="M12" s="20" t="n"/>
-      <c r="N12" s="20" t="inlineStr">
-        <is>
-          <t>call from allyson drop date</t>
-        </is>
+      <c r="J12" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="20" t="n">
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="13" s="25">
@@ -1619,24 +1639,44 @@
           <t>Parent</t>
         </is>
       </c>
-      <c r="B13" s="20" t="n"/>
-      <c r="C13" s="20" t="n"/>
-      <c r="D13" s="20" t="n"/>
-      <c r="E13" s="20" t="n"/>
-      <c r="F13" s="20" t="n"/>
-      <c r="G13" s="20" t="n"/>
-      <c r="H13" s="20" t="n"/>
-      <c r="I13" s="20" t="n"/>
-      <c r="J13" s="20" t="n"/>
-      <c r="K13" s="20" t="n"/>
+      <c r="B13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="20" t="n"/>
-      <c r="N13" s="20" t="inlineStr">
-        <is>
-          <t>call for Kaiser</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="M13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>31</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="14" s="25">
@@ -1645,24 +1685,44 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="B14" s="20" t="n"/>
-      <c r="C14" s="20" t="n"/>
+      <c r="B14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="D14" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20" t="n"/>
-      <c r="F14" s="20" t="n"/>
-      <c r="G14" s="20" t="n"/>
-      <c r="H14" s="20" t="n"/>
-      <c r="I14" s="20" t="n"/>
-      <c r="J14" s="20" t="n"/>
-      <c r="K14" s="20" t="n"/>
-      <c r="L14" s="20" t="n"/>
-      <c r="M14" s="20" t="n"/>
-      <c r="N14" s="20" t="inlineStr">
-        <is>
-          <t>email from JoAnne PAY</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="15" s="25">
@@ -1671,19 +1731,45 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B15" s="20" t="n"/>
-      <c r="C15" s="20" t="n"/>
-      <c r="D15" s="20" t="n"/>
-      <c r="E15" s="20" t="n"/>
-      <c r="F15" s="20" t="n"/>
-      <c r="G15" s="20" t="n"/>
-      <c r="H15" s="20" t="n"/>
-      <c r="I15" s="20" t="n"/>
-      <c r="J15" s="20" t="n"/>
-      <c r="K15" s="20" t="n"/>
-      <c r="L15" s="20" t="n"/>
-      <c r="M15" s="20" t="n"/>
-      <c r="N15" s="20" t="n"/>
+      <c r="B15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="E15" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>26</v>
+      </c>
+      <c r="H15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" s="20" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="16" s="25">
       <c r="A16" s="6" t="n"/>

--- a/Statistics/Master/2019/Weekly/August/Week of August 26, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 26, 2019.xlsx
@@ -1173,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="P42" sqref="P42"/>
@@ -4633,6 +4633,7 @@
       <c r="I47" s="8" t="n"/>
       <c r="J47" s="8" t="n"/>
     </row>
+    <row r="48"/>
     <row customHeight="1" ht="18.75" r="49" s="25">
       <c r="A49" s="1" t="inlineStr">
         <is>

--- a/Statistics/Master/2019/Weekly/August/Week of August 26, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 26, 2019.xlsx
@@ -1173,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="P42" sqref="P42"/>
@@ -4633,7 +4633,6 @@
       <c r="I47" s="8" t="n"/>
       <c r="J47" s="8" t="n"/>
     </row>
-    <row r="48"/>
     <row customHeight="1" ht="18.75" r="49" s="25">
       <c r="A49" s="1" t="inlineStr">
         <is>
